--- a/7rMartSupermarketProject/src/test/resources/Test Data.xlsx
+++ b/7rMartSupermarketProject/src/test/resources/Test Data.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RESHMA\git\7rMartProject\7rMartSupermarketProject\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AB4B47-65D0-4836-837B-93016A2545A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="36" yWindow="1764" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
+    <sheet name="AdminUserPage" sheetId="2" r:id="rId2"/>
+    <sheet name="ManageNewsPage" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,15 +26,83 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>New Username</t>
+  </si>
+  <si>
+    <t>New Password</t>
+  </si>
+  <si>
+    <t>User Type</t>
+  </si>
+  <si>
+    <t>Reshma</t>
+  </si>
+  <si>
+    <t>Resh</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>Bethany</t>
+  </si>
+  <si>
+    <t>Adding New User</t>
+  </si>
+  <si>
+    <t>For Search</t>
+  </si>
+  <si>
+    <t>movieuser</t>
+  </si>
+  <si>
+    <t>25% Discount on all garments</t>
+  </si>
+  <si>
+    <t>News</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,8 +125,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +419,157 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C709520-3A23-48BE-A516-13211CFFC49C}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="5" max="6" width="10.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="E1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F5899E-4A3A-4B2B-804E-AE5DEDD88830}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/7rMartSupermarketProject/src/test/resources/Test Data.xlsx
+++ b/7rMartSupermarketProject/src/test/resources/Test Data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RESHMA\git\7rMartProject\7rMartSupermarketProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AB4B47-65D0-4836-837B-93016A2545A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D94C8A-E736-43FC-AB13-B3F9FFA23F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36" yWindow="1764" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36" yWindow="1764" windowWidth="17280" windowHeight="8880" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="AdminUserPage" sheetId="2" r:id="rId2"/>
     <sheet name="ManageNewsPage" sheetId="3" r:id="rId3"/>
+    <sheet name="SubCategoryPage" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Username</t>
   </si>
@@ -78,6 +79,30 @@
   </si>
   <si>
     <t>News</t>
+  </si>
+  <si>
+    <t>Search News</t>
+  </si>
+  <si>
+    <t>offer</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Sub Category</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>Toys</t>
+  </si>
+  <si>
+    <t>Sports Toy Car2</t>
+  </si>
+  <si>
+    <t>C:\\Users\\RESHMA\\git\\7rMartProject\\7rMartSupermarketProject\\src\\test\\resources\\sports Toy car.jpg</t>
   </si>
 </sst>
 </file>
@@ -125,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -134,11 +159,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,15 +517,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="4"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -548,25 +577,74 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F5899E-4A3A-4B2B-804E-AE5DEDD88830}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.77734375" customWidth="1"/>
+    <col min="3" max="3" width="36.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="27" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="27" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5624F1C3-9A65-4CB9-9B11-40A6995747B0}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/7rMartSupermarketProject/src/test/resources/Test Data.xlsx
+++ b/7rMartSupermarketProject/src/test/resources/Test Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RESHMA\git\7rMartProject\7rMartSupermarketProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D94C8A-E736-43FC-AB13-B3F9FFA23F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04043703-8327-4E37-A710-CF14AAD5D67B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36" yWindow="1764" windowWidth="17280" windowHeight="8880" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -84,9 +84,6 @@
     <t>Search News</t>
   </si>
   <si>
-    <t>offer</t>
-  </si>
-  <si>
     <t>Category</t>
   </si>
   <si>
@@ -103,6 +100,9 @@
   </si>
   <si>
     <t>C:\\Users\\RESHMA\\git\\7rMartProject\\7rMartSupermarketProject\\src\\test\\resources\\sports Toy car.jpg</t>
+  </si>
+  <si>
+    <t>20% Discount on all garments</t>
   </si>
 </sst>
 </file>
@@ -162,12 +162,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -517,15 +517,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="E1" s="5" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="E1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="5"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -579,7 +579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F5899E-4A3A-4B2B-804E-AE5DEDD88830}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -602,7 +602,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -614,7 +614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5624F1C3-9A65-4CB9-9B11-40A6995747B0}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -627,24 +627,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/7rMartSupermarketProject/src/test/resources/Test Data.xlsx
+++ b/7rMartSupermarketProject/src/test/resources/Test Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RESHMA\git\7rMartProject\7rMartSupermarketProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04043703-8327-4E37-A710-CF14AAD5D67B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9061FF8E-DB39-45D3-8EAD-F9075C0292DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,7 +102,7 @@
     <t>C:\\Users\\RESHMA\\git\\7rMartProject\\7rMartSupermarketProject\\src\\test\\resources\\sports Toy car.jpg</t>
   </si>
   <si>
-    <t>20% Discount on all garments</t>
+    <t>todsys news updated</t>
   </si>
 </sst>
 </file>
